--- a/data/pca/factorExposure/factorExposure_2014-06-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-06-02.xlsx
@@ -717,16 +717,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.002637037957543685</v>
+        <v>-0.00224941353806193</v>
       </c>
       <c r="C2">
-        <v>-0.1362427284683325</v>
+        <v>-0.01972618679034683</v>
       </c>
       <c r="D2">
-        <v>0.05890784186002956</v>
+        <v>-0.07720628796412689</v>
       </c>
       <c r="E2">
-        <v>-0.2371270752621631</v>
+        <v>-0.02757997522575752</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -751,16 +751,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-0.01098449811524412</v>
+        <v>-0.001827598718795805</v>
       </c>
       <c r="C4">
-        <v>-0.1618274934262093</v>
+        <v>-0.0304900260244725</v>
       </c>
       <c r="D4">
-        <v>0.0512444234794799</v>
+        <v>-0.1313439019068057</v>
       </c>
       <c r="E4">
-        <v>-0.01784016104183878</v>
+        <v>-0.04775528197966657</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -785,16 +785,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.03517727362352895</v>
+        <v>-0.0009680482414265992</v>
       </c>
       <c r="C6">
-        <v>-0.08611889223027834</v>
+        <v>-0.04839639999734539</v>
       </c>
       <c r="D6">
-        <v>0.05946847473221695</v>
+        <v>-0.08162206295919829</v>
       </c>
       <c r="E6">
-        <v>-0.0003316299309026506</v>
+        <v>-0.014319950111187</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -802,16 +802,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-0.02205989042482276</v>
+        <v>-0.002204280384689085</v>
       </c>
       <c r="C7">
-        <v>-0.08688807077809088</v>
+        <v>-0.02617887322273317</v>
       </c>
       <c r="D7">
-        <v>0.03791431832280621</v>
+        <v>-0.06823775957964201</v>
       </c>
       <c r="E7">
-        <v>-0.00324486161654914</v>
+        <v>-0.0181094657663221</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -819,16 +819,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.005138886115348316</v>
+        <v>0.002108678709096657</v>
       </c>
       <c r="C8">
-        <v>-0.07293959262871953</v>
+        <v>-0.007782125440314922</v>
       </c>
       <c r="D8">
-        <v>0.05326574897627578</v>
+        <v>-0.05613026250688959</v>
       </c>
       <c r="E8">
-        <v>-0.04380234276203911</v>
+        <v>-0.0348584139861249</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -836,16 +836,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-0.004629796788137345</v>
+        <v>-0.005622285270611591</v>
       </c>
       <c r="C9">
-        <v>-0.1165181051942674</v>
+        <v>-0.01829026643509436</v>
       </c>
       <c r="D9">
-        <v>0.05482593862106321</v>
+        <v>-0.09620664258572693</v>
       </c>
       <c r="E9">
-        <v>0.0002145692331261258</v>
+        <v>-0.028192316495276</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -853,16 +853,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>-0.2656749408718376</v>
+        <v>0.003391050216491681</v>
       </c>
       <c r="C10">
-        <v>0.06749272570248273</v>
+        <v>-0.2291314906594283</v>
       </c>
       <c r="D10">
-        <v>-0.01422668171093663</v>
+        <v>0.124274611916326</v>
       </c>
       <c r="E10">
-        <v>0.007106490010767096</v>
+        <v>0.01237241932796123</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -870,16 +870,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.01359359165491288</v>
+        <v>-0.005668854231350583</v>
       </c>
       <c r="C11">
-        <v>-0.07901601026982771</v>
+        <v>-0.02736664780893457</v>
       </c>
       <c r="D11">
-        <v>0.03122505565966428</v>
+        <v>-0.08731549387493437</v>
       </c>
       <c r="E11">
-        <v>0.03650174726721186</v>
+        <v>-0.0394960985653582</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -887,16 +887,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.01310040036196842</v>
+        <v>-0.001294470740937583</v>
       </c>
       <c r="C12">
-        <v>-0.05492497645820132</v>
+        <v>-0.02347254299583566</v>
       </c>
       <c r="D12">
-        <v>0.02455324783487842</v>
+        <v>-0.05384819782453296</v>
       </c>
       <c r="E12">
-        <v>0.02014486026496231</v>
+        <v>-0.02067409360140171</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -904,16 +904,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.004802473965354189</v>
+        <v>0.003661211546079183</v>
       </c>
       <c r="C13">
-        <v>-0.1318528882036735</v>
+        <v>-0.01517715706535797</v>
       </c>
       <c r="D13">
-        <v>0.01841097200055652</v>
+        <v>-0.1146382083833223</v>
       </c>
       <c r="E13">
-        <v>-0.07611526785154125</v>
+        <v>-0.03752363295506518</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -921,16 +921,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.01287208446954188</v>
+        <v>-0.0038081851745984</v>
       </c>
       <c r="C14">
-        <v>-0.09902180101186468</v>
+        <v>-0.02908972369796551</v>
       </c>
       <c r="D14">
-        <v>0.05783267596210766</v>
+        <v>-0.07904201748706258</v>
       </c>
       <c r="E14">
-        <v>-0.03347516838368272</v>
+        <v>-0.02555247310389262</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -938,16 +938,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>-0.002058818430923945</v>
+        <v>-0.003462507170411396</v>
       </c>
       <c r="C15">
-        <v>-0.08827835885761845</v>
+        <v>-0.009655449885880487</v>
       </c>
       <c r="D15">
-        <v>0.0250970168270052</v>
+        <v>-0.07272379531885227</v>
       </c>
       <c r="E15">
-        <v>-0.0009117055373719814</v>
+        <v>-0.02503870253826737</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -955,16 +955,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>-0.01255395963404303</v>
+        <v>-0.003260740391510831</v>
       </c>
       <c r="C16">
-        <v>-0.06329758197217238</v>
+        <v>-0.02277525349796078</v>
       </c>
       <c r="D16">
-        <v>0.02850344414689209</v>
+        <v>-0.06317763639720914</v>
       </c>
       <c r="E16">
-        <v>0.02740282320455811</v>
+        <v>-0.02477948454487567</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1023,16 +1023,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>-0.01499155165943332</v>
+        <v>-0.001178898101657834</v>
       </c>
       <c r="C20">
-        <v>-0.09786763624122748</v>
+        <v>-0.0241042380557866</v>
       </c>
       <c r="D20">
-        <v>0.04933614778072307</v>
+        <v>-0.08640786197970582</v>
       </c>
       <c r="E20">
-        <v>0.03854864937155923</v>
+        <v>-0.02271344257257917</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1040,16 +1040,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>-0.01068816828837202</v>
+        <v>0.004321392106547689</v>
       </c>
       <c r="C21">
-        <v>-0.08917183883445064</v>
+        <v>-0.01513864305141494</v>
       </c>
       <c r="D21">
-        <v>0.01617173472470715</v>
+        <v>-0.07244821230520818</v>
       </c>
       <c r="E21">
-        <v>-0.09899087073836363</v>
+        <v>-0.007853080137952649</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1057,16 +1057,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.009887336107671695</v>
+        <v>-0.01677340092311963</v>
       </c>
       <c r="C22">
-        <v>-0.2248996165876605</v>
+        <v>-0.02192297898699232</v>
       </c>
       <c r="D22">
-        <v>-0.08618568238763717</v>
+        <v>-0.1662325150256919</v>
       </c>
       <c r="E22">
-        <v>-0.1724764238944936</v>
+        <v>-0.02553687201882877</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1074,16 +1074,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.003047293041229518</v>
+        <v>-0.01706403430959041</v>
       </c>
       <c r="C23">
-        <v>-0.2318409237183041</v>
+        <v>-0.02683151950418274</v>
       </c>
       <c r="D23">
-        <v>-0.08733067115943444</v>
+        <v>-0.1681369084978283</v>
       </c>
       <c r="E23">
-        <v>-0.1652895066297922</v>
+        <v>-0.02385171803282558</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1091,16 +1091,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>-0.01211212207980542</v>
+        <v>-0.004375210931318659</v>
       </c>
       <c r="C24">
-        <v>-0.06856696930659735</v>
+        <v>-0.023068066840108</v>
       </c>
       <c r="D24">
-        <v>0.04718639931796433</v>
+        <v>-0.06605245408886402</v>
       </c>
       <c r="E24">
-        <v>0.02463352288168887</v>
+        <v>-0.0335288839177649</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1108,16 +1108,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>-0.0171613515700285</v>
+        <v>-0.0060197186844983</v>
       </c>
       <c r="C25">
-        <v>-0.07047526907414804</v>
+        <v>-0.02997511022939853</v>
       </c>
       <c r="D25">
-        <v>0.02581627817152845</v>
+        <v>-0.06996389757777845</v>
       </c>
       <c r="E25">
-        <v>0.02743709973527018</v>
+        <v>-0.02840122496398302</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1125,16 +1125,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>-0.02775764838253979</v>
+        <v>-0.006351705034960188</v>
       </c>
       <c r="C26">
-        <v>-0.04938551040938348</v>
+        <v>-0.02779028551373197</v>
       </c>
       <c r="D26">
-        <v>0.08787775532335071</v>
+        <v>-0.04782143649873719</v>
       </c>
       <c r="E26">
-        <v>-0.02889347290261806</v>
+        <v>-0.0457927470242195</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1159,16 +1159,16 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>-0.328878110925023</v>
+        <v>-0.007781653861160638</v>
       </c>
       <c r="C28">
-        <v>0.09632879364827515</v>
+        <v>-0.2956114519298941</v>
       </c>
       <c r="D28">
-        <v>-0.05428238260471151</v>
+        <v>0.1475941324051794</v>
       </c>
       <c r="E28">
-        <v>0.004695543655866517</v>
+        <v>0.03326783344482754</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1176,16 +1176,16 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>-0.008118519627776136</v>
+        <v>-0.001812576944819377</v>
       </c>
       <c r="C29">
-        <v>-0.1058415875909968</v>
+        <v>-0.02418486008203434</v>
       </c>
       <c r="D29">
-        <v>0.06339592354653062</v>
+        <v>-0.08081585567472702</v>
       </c>
       <c r="E29">
-        <v>-0.009500394079631927</v>
+        <v>-0.02819375610921348</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1193,16 +1193,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>-0.01792254108254959</v>
+        <v>-0.005891730426496601</v>
       </c>
       <c r="C30">
-        <v>-0.1532562455804377</v>
+        <v>-0.04893092560526795</v>
       </c>
       <c r="D30">
-        <v>0.05834510597581307</v>
+        <v>-0.1454833533553039</v>
       </c>
       <c r="E30">
-        <v>-0.02929572532758465</v>
+        <v>-0.03744190543246539</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1210,16 +1210,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>-0.007332173595576986</v>
+        <v>-0.0005363796555384048</v>
       </c>
       <c r="C31">
-        <v>-0.07141753618252854</v>
+        <v>-0.02054980835892348</v>
       </c>
       <c r="D31">
-        <v>0.04376769321539406</v>
+        <v>-0.07244843298165671</v>
       </c>
       <c r="E31">
-        <v>0.02503410838044846</v>
+        <v>-0.029048652382788</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1227,16 +1227,16 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>-0.01064439996963486</v>
+        <v>-0.002297640226424539</v>
       </c>
       <c r="C32">
-        <v>-0.09076554986213844</v>
+        <v>-0.02536875959666061</v>
       </c>
       <c r="D32">
-        <v>0.01959404849109916</v>
+        <v>-0.05099089653227558</v>
       </c>
       <c r="E32">
-        <v>-0.1187710561705882</v>
+        <v>-0.0290969961332336</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1244,16 +1244,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>-0.01503622834458663</v>
+        <v>-0.003426203296297862</v>
       </c>
       <c r="C33">
-        <v>-0.1045904105196653</v>
+        <v>-0.02816459509746741</v>
       </c>
       <c r="D33">
-        <v>0.05576482993009875</v>
+        <v>-0.09783577281139356</v>
       </c>
       <c r="E33">
-        <v>0.02656597180903678</v>
+        <v>-0.043416673903303</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1261,16 +1261,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>-0.01189296800167528</v>
+        <v>-0.005686749575419102</v>
       </c>
       <c r="C34">
-        <v>-0.05254342068690702</v>
+        <v>-0.02347248622445866</v>
       </c>
       <c r="D34">
-        <v>0.02404202791439961</v>
+        <v>-0.05226899539628704</v>
       </c>
       <c r="E34">
-        <v>0.008007878868451114</v>
+        <v>-0.0203720769971247</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1278,16 +1278,16 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>-0.005395622683613576</v>
+        <v>-0.004425537714693981</v>
       </c>
       <c r="C35">
-        <v>-0.06520350595985359</v>
+        <v>-0.01732926326168916</v>
       </c>
       <c r="D35">
-        <v>0.02247068096510135</v>
+        <v>-0.05171687971643588</v>
       </c>
       <c r="E35">
-        <v>0.0001135919711070476</v>
+        <v>-0.01973340875606612</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1295,16 +1295,16 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>-0.01826980229445919</v>
+        <v>-0.004882154450917026</v>
       </c>
       <c r="C36">
-        <v>-0.05130092266000895</v>
+        <v>-0.01696721628091631</v>
       </c>
       <c r="D36">
-        <v>0.06243899043281399</v>
+        <v>-0.03955782088985282</v>
       </c>
       <c r="E36">
-        <v>-0.01244084284040001</v>
+        <v>-0.02829444731958628</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1329,16 +1329,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>-0.02459090437907716</v>
+        <v>0.002164996638090948</v>
       </c>
       <c r="C38">
-        <v>-0.05478412803618406</v>
+        <v>-0.01785461568579383</v>
       </c>
       <c r="D38">
-        <v>0.03292582001101644</v>
+        <v>-0.05576903735802526</v>
       </c>
       <c r="E38">
-        <v>0.03417239350700198</v>
+        <v>-0.02665028742890984</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1346,16 +1346,16 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>-0.003902252822803867</v>
+        <v>-0.01392762468821291</v>
       </c>
       <c r="C39">
-        <v>-0.11590742843315</v>
+        <v>-0.03815668801157466</v>
       </c>
       <c r="D39">
-        <v>0.05931850091404642</v>
+        <v>-0.1294605495330381</v>
       </c>
       <c r="E39">
-        <v>-0.01071698269496141</v>
+        <v>-0.04532268599748771</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1363,16 +1363,16 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>-0.01791742586873999</v>
+        <v>-0.008255297869132554</v>
       </c>
       <c r="C40">
-        <v>-0.07087007197276815</v>
+        <v>-0.03490801036656458</v>
       </c>
       <c r="D40">
-        <v>0.01937101627114656</v>
+        <v>-0.08802683971256818</v>
       </c>
       <c r="E40">
-        <v>-0.003874058953470926</v>
+        <v>-0.03847207762204848</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1380,16 +1380,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>-0.02345197195489458</v>
+        <v>-0.0001741081749198466</v>
       </c>
       <c r="C41">
-        <v>-0.04605187634992176</v>
+        <v>-0.0241775857629249</v>
       </c>
       <c r="D41">
-        <v>0.02053192036508659</v>
+        <v>-0.04254564039803286</v>
       </c>
       <c r="E41">
-        <v>0.02778401439363886</v>
+        <v>-0.01252883400096817</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1414,16 +1414,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>-0.01737050560138107</v>
+        <v>-0.003093283815438751</v>
       </c>
       <c r="C43">
-        <v>-0.04088398016242307</v>
+        <v>-0.02403543155928704</v>
       </c>
       <c r="D43">
-        <v>0.03940065043340261</v>
+        <v>-0.04195691800044386</v>
       </c>
       <c r="E43">
-        <v>0.03138447959426907</v>
+        <v>-0.02282076780421213</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1431,16 +1431,16 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>-0.01117427438453826</v>
+        <v>-0.005459506238888283</v>
       </c>
       <c r="C44">
-        <v>-0.1019590314047147</v>
+        <v>-0.02436258426212346</v>
       </c>
       <c r="D44">
-        <v>0.07274678504596925</v>
+        <v>-0.09998019113624254</v>
       </c>
       <c r="E44">
-        <v>-0.04592395629594047</v>
+        <v>-0.0548319795846787</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1465,16 +1465,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>-0.002083111161648296</v>
+        <v>-0.002523146348135504</v>
       </c>
       <c r="C46">
-        <v>-0.07272076586503673</v>
+        <v>-0.01348781200437587</v>
       </c>
       <c r="D46">
-        <v>0.06678490095094722</v>
+        <v>-0.07448469677879553</v>
       </c>
       <c r="E46">
-        <v>0.005103118224011289</v>
+        <v>-0.01489586110863697</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1482,16 +1482,16 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>-0.01921235476210204</v>
+        <v>-0.00174578399695726</v>
       </c>
       <c r="C47">
-        <v>-0.07558460648794778</v>
+        <v>-0.02683361475033408</v>
       </c>
       <c r="D47">
-        <v>0.06413761903539879</v>
+        <v>-0.07261910261567299</v>
       </c>
       <c r="E47">
-        <v>0.01075590830401424</v>
+        <v>-0.03906659470669188</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1499,16 +1499,16 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>-0.02346894107227245</v>
+        <v>0.003518287947266375</v>
       </c>
       <c r="C48">
-        <v>-0.05909536884706458</v>
+        <v>-0.02084604271671999</v>
       </c>
       <c r="D48">
-        <v>0.07813976601075172</v>
+        <v>-0.04208523749656567</v>
       </c>
       <c r="E48">
-        <v>-0.006761100661829577</v>
+        <v>-0.04121746155665388</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1516,16 +1516,16 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.01460603623046414</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.04750264011978918</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.08594740986562087</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.04301447126736486</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1533,16 +1533,16 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>-0.01117361564662996</v>
+        <v>-0.0008238004193427975</v>
       </c>
       <c r="C50">
-        <v>-0.07972611804999125</v>
+        <v>-0.0204252436627801</v>
       </c>
       <c r="D50">
-        <v>0.04605241825403448</v>
+        <v>-0.07058699325621923</v>
       </c>
       <c r="E50">
-        <v>0.02511628710863867</v>
+        <v>-0.01859866301289896</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1550,16 +1550,16 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>-0.000465313281924665</v>
+        <v>0.001057534241589172</v>
       </c>
       <c r="C51">
-        <v>-0.06781828198371924</v>
+        <v>-0.001354834222896096</v>
       </c>
       <c r="D51">
-        <v>0.04454470562491159</v>
+        <v>-0.03187701997088945</v>
       </c>
       <c r="E51">
-        <v>-0.03697459500229404</v>
+        <v>-0.02060917878136248</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1584,16 +1584,16 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>-0.03661890144052013</v>
+        <v>0.0006527693927626603</v>
       </c>
       <c r="C53">
-        <v>-0.09825253153079162</v>
+        <v>-0.07917204088651889</v>
       </c>
       <c r="D53">
-        <v>0.04444775417468023</v>
+        <v>-0.1339286491586695</v>
       </c>
       <c r="E53">
-        <v>0.04929477746128316</v>
+        <v>-0.0588366604427459</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1601,16 +1601,16 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>-0.01374624572498864</v>
+        <v>-0.0009015068582505013</v>
       </c>
       <c r="C54">
-        <v>-0.07381624622154534</v>
+        <v>-0.0242604817834666</v>
       </c>
       <c r="D54">
-        <v>0.01457738085785636</v>
+        <v>-0.07158793248767788</v>
       </c>
       <c r="E54">
-        <v>0.03627028135076741</v>
+        <v>-0.007106009455968697</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1618,16 +1618,16 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>-0.01769898754502756</v>
+        <v>-0.005073401600609226</v>
       </c>
       <c r="C55">
-        <v>-0.06476662486930691</v>
+        <v>-0.04182355269418624</v>
       </c>
       <c r="D55">
-        <v>0.06135160284128988</v>
+        <v>-0.08744088618817501</v>
       </c>
       <c r="E55">
-        <v>0.03052965618108013</v>
+        <v>-0.05015195024483744</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1635,16 +1635,16 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>-0.01712654712754455</v>
+        <v>0.002290177494340686</v>
       </c>
       <c r="C56">
-        <v>-0.1293311098958623</v>
+        <v>-0.07340457264358161</v>
       </c>
       <c r="D56">
-        <v>0.05579053782842342</v>
+        <v>-0.1630128238913099</v>
       </c>
       <c r="E56">
-        <v>0.00629500089924293</v>
+        <v>-0.08065110369519607</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1669,16 +1669,16 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>-0.02369145775772163</v>
+        <v>-0.008826296702815763</v>
       </c>
       <c r="C58">
-        <v>-0.2509233129563551</v>
+        <v>-0.03755926243196214</v>
       </c>
       <c r="D58">
-        <v>-0.0129346697946125</v>
+        <v>-0.1587674546483979</v>
       </c>
       <c r="E58">
-        <v>-0.1358605688761925</v>
+        <v>-0.02975974432256059</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1686,16 +1686,16 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>-0.289821738768979</v>
+        <v>-0.009817391676711588</v>
       </c>
       <c r="C59">
-        <v>0.006122305484337752</v>
+        <v>-0.28137957400405</v>
       </c>
       <c r="D59">
-        <v>-0.02381109176069823</v>
+        <v>0.08292551087541118</v>
       </c>
       <c r="E59">
-        <v>-0.07476039712804704</v>
+        <v>0.009597937732933841</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1703,16 +1703,16 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>-0.1439309881289869</v>
+        <v>-0.008376334731303087</v>
       </c>
       <c r="C60">
-        <v>-0.1587420368767425</v>
+        <v>-0.1690292451202162</v>
       </c>
       <c r="D60">
-        <v>0.02325237531659268</v>
+        <v>-0.1492540583294886</v>
       </c>
       <c r="E60">
-        <v>0.07009224209423424</v>
+        <v>-0.01550664576580361</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1720,16 +1720,16 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>-0.01025991795202461</v>
+        <v>-0.01606234231075729</v>
       </c>
       <c r="C61">
-        <v>-0.1000528399336089</v>
+        <v>-0.03830301758073442</v>
       </c>
       <c r="D61">
-        <v>0.06533558791125602</v>
+        <v>-0.1002248415681677</v>
       </c>
       <c r="E61">
-        <v>0.02146227429407576</v>
+        <v>-0.04843656176222431</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1737,16 +1737,16 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.1841962652458461</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.003493999675547716</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.03232412393500812</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.008961482995073794</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1754,16 +1754,16 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>-0.01661263932957515</v>
+        <v>-0.002687255792883835</v>
       </c>
       <c r="C63">
-        <v>-0.05368821033110634</v>
+        <v>-0.03295892985202715</v>
       </c>
       <c r="D63">
-        <v>0.0848071562868765</v>
+        <v>-0.05536059024599591</v>
       </c>
       <c r="E63">
-        <v>0.003986533886762989</v>
+        <v>-0.04474209628691708</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1771,16 +1771,16 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.001267325966888167</v>
+        <v>-0.008112141009630177</v>
       </c>
       <c r="C64">
-        <v>-0.1024113338097463</v>
+        <v>-0.02616153063217831</v>
       </c>
       <c r="D64">
-        <v>0.06631924258823965</v>
+        <v>-0.08775455454524404</v>
       </c>
       <c r="E64">
-        <v>0.05119647326951902</v>
+        <v>-0.02348623119994474</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1788,16 +1788,16 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>-0.02006849018988617</v>
+        <v>-0.0001378171540508005</v>
       </c>
       <c r="C65">
-        <v>-0.110289415779188</v>
+        <v>-0.03934224278806887</v>
       </c>
       <c r="D65">
-        <v>0.03470322819804725</v>
+        <v>-0.09026448801775684</v>
       </c>
       <c r="E65">
-        <v>0.06720403195066998</v>
+        <v>-0.00887274728726388</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1805,16 +1805,16 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.004630987445540937</v>
+        <v>-0.01031691761496236</v>
       </c>
       <c r="C66">
-        <v>-0.1670898155278358</v>
+        <v>-0.04286968827232741</v>
       </c>
       <c r="D66">
-        <v>0.05862338926846504</v>
+        <v>-0.1762018267221929</v>
       </c>
       <c r="E66">
-        <v>-0.03055428800722318</v>
+        <v>-0.04828467874344683</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1822,16 +1822,16 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>-0.03034134747646806</v>
+        <v>0.002159293674566949</v>
       </c>
       <c r="C67">
-        <v>-0.03815386769345112</v>
+        <v>-0.02900771715120308</v>
       </c>
       <c r="D67">
-        <v>0.0413266125717096</v>
+        <v>-0.05279523993047864</v>
       </c>
       <c r="E67">
-        <v>0.06617472581353684</v>
+        <v>-0.03325818790585231</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1839,16 +1839,16 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>-0.3061547735537803</v>
+        <v>-0.01063750483248641</v>
       </c>
       <c r="C68">
-        <v>0.02882711858018357</v>
+        <v>-0.2774917574758836</v>
       </c>
       <c r="D68">
-        <v>-0.05380961958054017</v>
+        <v>0.1175083368293569</v>
       </c>
       <c r="E68">
-        <v>-0.03202654038440076</v>
+        <v>0.04123876160453621</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1856,16 +1856,16 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>-0.01625605016344182</v>
+        <v>-0.003765083953566453</v>
       </c>
       <c r="C69">
-        <v>-0.05825368492860603</v>
+        <v>-0.01402093746186677</v>
       </c>
       <c r="D69">
-        <v>0.04238448825397039</v>
+        <v>-0.04599960243253715</v>
       </c>
       <c r="E69">
-        <v>0.0304119445900666</v>
+        <v>-0.02092291858072579</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1890,16 +1890,16 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>-0.2891478339440776</v>
+        <v>-0.005782649296008435</v>
       </c>
       <c r="C71">
-        <v>0.03801450992404414</v>
+        <v>-0.2655808356822621</v>
       </c>
       <c r="D71">
-        <v>-0.007969509716859814</v>
+        <v>0.114813646452485</v>
       </c>
       <c r="E71">
-        <v>-0.01206936494333908</v>
+        <v>0.02233271778247513</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1907,16 +1907,16 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>-0.02369997564531697</v>
+        <v>-0.009302843527452028</v>
       </c>
       <c r="C72">
-        <v>-0.1340459529920541</v>
+        <v>-0.06852403102496547</v>
       </c>
       <c r="D72">
-        <v>0.03166294301377414</v>
+        <v>-0.1286408509805201</v>
       </c>
       <c r="E72">
-        <v>0.02614909111885855</v>
+        <v>-0.02038334230956293</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1924,16 +1924,16 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>-0.1269469111568877</v>
+        <v>-0.0155816174178094</v>
       </c>
       <c r="C73">
-        <v>-0.1388930128302298</v>
+        <v>-0.180864094436381</v>
       </c>
       <c r="D73">
-        <v>0.1002492512998281</v>
+        <v>-0.1749640335601909</v>
       </c>
       <c r="E73">
-        <v>0.1020866122020425</v>
+        <v>-0.05097766734222949</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1941,16 +1941,16 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>-0.02396526530445921</v>
+        <v>-0.004800035551002418</v>
       </c>
       <c r="C74">
-        <v>-0.08686636524049129</v>
+        <v>-0.04891648433003776</v>
       </c>
       <c r="D74">
-        <v>0.05829909688669166</v>
+        <v>-0.1008861896425324</v>
       </c>
       <c r="E74">
-        <v>0.0226430828965137</v>
+        <v>-0.03210744526448975</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1958,16 +1958,16 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>-0.03617574849751399</v>
+        <v>-0.007769485157738927</v>
       </c>
       <c r="C75">
-        <v>-0.1365720309188843</v>
+        <v>-0.07804794462664881</v>
       </c>
       <c r="D75">
-        <v>0.04692670982590527</v>
+        <v>-0.1746674444979879</v>
       </c>
       <c r="E75">
-        <v>0.07597496484733599</v>
+        <v>-0.06577694209849209</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1975,16 +1975,16 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>-0.0201526667242552</v>
+        <v>0.01126951642122461</v>
       </c>
       <c r="C76">
-        <v>-0.1001073117231647</v>
+        <v>-0.06339428062254798</v>
       </c>
       <c r="D76">
-        <v>0.06819649858012405</v>
+        <v>-0.1390892751046823</v>
       </c>
       <c r="E76">
-        <v>0.04485629627494418</v>
+        <v>-0.0746156562378773</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1992,16 +1992,16 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.0001644314282755617</v>
+        <v>0.003553878294236495</v>
       </c>
       <c r="C77">
-        <v>-0.3590376902144135</v>
+        <v>-0.04634550775553156</v>
       </c>
       <c r="D77">
-        <v>-0.864371987045118</v>
+        <v>-0.3244250454980432</v>
       </c>
       <c r="E77">
-        <v>0.1896627690042242</v>
+        <v>0.933215373622916</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2009,16 +2009,16 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>-0.02513682185228583</v>
+        <v>0.0001195055815710264</v>
       </c>
       <c r="C78">
-        <v>-0.1175042909290315</v>
+        <v>-0.04482040444761899</v>
       </c>
       <c r="D78">
-        <v>0.1399757390082912</v>
+        <v>-0.09928474037540748</v>
       </c>
       <c r="E78">
-        <v>-0.07888331078149416</v>
+        <v>-0.05739696878696555</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2026,16 +2026,16 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>-0.02195485172612838</v>
+        <v>0.02746646785476443</v>
       </c>
       <c r="C79">
-        <v>-0.1238551353660922</v>
+        <v>-0.07152600167837847</v>
       </c>
       <c r="D79">
-        <v>0.05842877878582195</v>
+        <v>-0.1380818319584639</v>
       </c>
       <c r="E79">
-        <v>0.02371347639591042</v>
+        <v>-0.04391324878666972</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2043,16 +2043,16 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>-0.02196893311568509</v>
+        <v>0.004895395818995723</v>
       </c>
       <c r="C80">
-        <v>-0.05137303098479032</v>
+        <v>-0.02805966829275101</v>
       </c>
       <c r="D80">
-        <v>0.04224268972249068</v>
+        <v>-0.04278628634856514</v>
       </c>
       <c r="E80">
-        <v>-0.04315835517550377</v>
+        <v>-0.03628582900871356</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2060,16 +2060,16 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>-0.003419136988536493</v>
+        <v>-1.127879805491396e-06</v>
       </c>
       <c r="C81">
-        <v>-0.09375548382134273</v>
+        <v>-0.03033615634308692</v>
       </c>
       <c r="D81">
-        <v>0.06564258207699479</v>
+        <v>-0.1130830709915276</v>
       </c>
       <c r="E81">
-        <v>0.04370975600086704</v>
+        <v>-0.05419152421314406</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2077,16 +2077,16 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>-0.01857238646969939</v>
+        <v>0.006102512231751238</v>
       </c>
       <c r="C82">
-        <v>-0.0709945997412306</v>
+        <v>-0.06068944837132214</v>
       </c>
       <c r="D82">
-        <v>0.063132583004969</v>
+        <v>-0.1108439451374231</v>
       </c>
       <c r="E82">
-        <v>0.0260899069886735</v>
+        <v>-0.06131978120643878</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2094,16 +2094,16 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>-0.002753703528923068</v>
+        <v>-0.007181524293503087</v>
       </c>
       <c r="C83">
-        <v>0.02465038155568047</v>
+        <v>6.277457907163172e-05</v>
       </c>
       <c r="D83">
-        <v>-0.1394132229837833</v>
+        <v>0.01419108426467324</v>
       </c>
       <c r="E83">
-        <v>-0.8281329495627647</v>
+        <v>0.04878512473774284</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2111,16 +2111,16 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.003844184790967972</v>
+        <v>0.01271343367842543</v>
       </c>
       <c r="C84">
-        <v>-0.1013551697988666</v>
+        <v>-0.01956600859472905</v>
       </c>
       <c r="D84">
-        <v>0.04342789782750855</v>
+        <v>-0.05511143727462162</v>
       </c>
       <c r="E84">
-        <v>-0.01953319857710353</v>
+        <v>-0.06694733561900273</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2128,16 +2128,16 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>-0.009330667552590597</v>
+        <v>0.01600151647514511</v>
       </c>
       <c r="C85">
-        <v>-0.09996420183469305</v>
+        <v>-0.04420175460490561</v>
       </c>
       <c r="D85">
-        <v>0.0377181627253875</v>
+        <v>-0.1323458767348777</v>
       </c>
       <c r="E85">
-        <v>0.03577451416238157</v>
+        <v>-0.05365855634192263</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2145,16 +2145,16 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>-0.01721067125755309</v>
+        <v>-0.003793380009696073</v>
       </c>
       <c r="C86">
-        <v>-0.08879396926552892</v>
+        <v>-0.02261094565800761</v>
       </c>
       <c r="D86">
-        <v>0.03016859976664042</v>
+        <v>-0.0721325293645914</v>
       </c>
       <c r="E86">
-        <v>-0.003568497085087866</v>
+        <v>-0.02982214138106598</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2162,16 +2162,16 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>-0.006483534474248126</v>
+        <v>-0.008039072905930674</v>
       </c>
       <c r="C87">
-        <v>-0.1410878750208371</v>
+        <v>-0.03532081489709939</v>
       </c>
       <c r="D87">
-        <v>0.05541664673809079</v>
+        <v>-0.1221100002583652</v>
       </c>
       <c r="E87">
-        <v>-0.09063902752510909</v>
+        <v>-0.0120135067647902</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2179,16 +2179,16 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>-0.02826021187185335</v>
+        <v>-0.01475114161297101</v>
       </c>
       <c r="C88">
-        <v>-0.05568106161353699</v>
+        <v>-0.04382039956979368</v>
       </c>
       <c r="D88">
-        <v>0.05434007353374595</v>
+        <v>-0.06001920307866584</v>
       </c>
       <c r="E88">
-        <v>0.05050802107778007</v>
+        <v>-0.02766075724008359</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2196,16 +2196,16 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>-0.3940130986712392</v>
+        <v>-0.01860543410198843</v>
       </c>
       <c r="C89">
-        <v>0.05722604526450089</v>
+        <v>-0.3754315497013106</v>
       </c>
       <c r="D89">
-        <v>-0.02040943982196336</v>
+        <v>0.151052839775025</v>
       </c>
       <c r="E89">
-        <v>-0.009269163756540277</v>
+        <v>0.0408666313117316</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2213,16 +2213,16 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>-0.3143314631227466</v>
+        <v>-0.005439042771485907</v>
       </c>
       <c r="C90">
-        <v>0.02486061001501323</v>
+        <v>-0.3124852968737554</v>
       </c>
       <c r="D90">
-        <v>-0.004904548079413419</v>
+        <v>0.1066685014317743</v>
       </c>
       <c r="E90">
-        <v>-0.07356947124346518</v>
+        <v>0.01639917013578855</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2230,16 +2230,16 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>-0.03619028363206754</v>
+        <v>0.001376664781978657</v>
       </c>
       <c r="C91">
-        <v>-0.07476558653787349</v>
+        <v>-0.06807192566802003</v>
       </c>
       <c r="D91">
-        <v>0.04100919853805892</v>
+        <v>-0.08287027048427772</v>
       </c>
       <c r="E91">
-        <v>-0.006223502967240181</v>
+        <v>-0.04873697839673746</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2247,16 +2247,16 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>-0.3653578996784705</v>
+        <v>-0.01761728968863443</v>
       </c>
       <c r="C92">
-        <v>0.06119226428895071</v>
+        <v>-0.3334559769373129</v>
       </c>
       <c r="D92">
-        <v>-0.04574673902250725</v>
+        <v>0.1487692846987043</v>
       </c>
       <c r="E92">
-        <v>0.07776350654196003</v>
+        <v>0.06747842627161856</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2264,16 +2264,16 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>-0.3169284016430947</v>
+        <v>-0.004378230000754845</v>
       </c>
       <c r="C93">
-        <v>0.07827940419427985</v>
+        <v>-0.2934550275350938</v>
       </c>
       <c r="D93">
-        <v>-0.0106749769156025</v>
+        <v>0.1497809249804464</v>
       </c>
       <c r="E93">
-        <v>-0.03994227323623048</v>
+        <v>0.01256485577538316</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2281,16 +2281,16 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>-0.03413824035452128</v>
+        <v>0.00225200825580957</v>
       </c>
       <c r="C94">
-        <v>-0.1606868667657997</v>
+        <v>-0.09943234107231214</v>
       </c>
       <c r="D94">
-        <v>0.09793211272509424</v>
+        <v>-0.1621174564104949</v>
       </c>
       <c r="E94">
-        <v>0.0633324656672281</v>
+        <v>-0.08413544422838634</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2298,16 +2298,16 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>-0.03335538445842804</v>
+        <v>-0.005796013259204452</v>
       </c>
       <c r="C95">
-        <v>-0.131212350193358</v>
+        <v>-0.05749322338210632</v>
       </c>
       <c r="D95">
-        <v>0.06206637543715825</v>
+        <v>-0.1333055803090238</v>
       </c>
       <c r="E95">
-        <v>0.02430833846567879</v>
+        <v>-0.05342606996016408</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2332,16 +2332,16 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>-0.002884334094884792</v>
+        <v>-0.00419989148999166</v>
       </c>
       <c r="C97">
-        <v>-0.002253602610370709</v>
+        <v>-0.03431703966567522</v>
       </c>
       <c r="D97">
-        <v>0.008409786295970462</v>
+        <v>-0.04554937103475821</v>
       </c>
       <c r="E97">
-        <v>0.00682275357219166</v>
+        <v>-0.009665279396039627</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2349,16 +2349,16 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>-0.1104167116222496</v>
+        <v>-0.007901661974021538</v>
       </c>
       <c r="C98">
-        <v>-0.166990539543173</v>
+        <v>-0.1666830993444817</v>
       </c>
       <c r="D98">
-        <v>0.07561867398268224</v>
+        <v>-0.1475149922251119</v>
       </c>
       <c r="E98">
-        <v>0.07777759131347434</v>
+        <v>-0.07992008488345473</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2366,16 +2366,16 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.980132677139385</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.03468400351283549</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.005642016235626982</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.003964429235341251</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2400,16 +2400,16 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>-0.008126836142786401</v>
+        <v>-0.001769135919484844</v>
       </c>
       <c r="C101">
-        <v>-0.1037569909731586</v>
+        <v>-0.02423589545119779</v>
       </c>
       <c r="D101">
-        <v>0.06286994759161202</v>
+        <v>-0.07966953459609386</v>
       </c>
       <c r="E101">
-        <v>-0.01034904163053586</v>
+        <v>-0.02685625063040844</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2417,16 +2417,16 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.0004785097254802837</v>
+        <v>1.771301763493958e-05</v>
       </c>
       <c r="C102">
-        <v>-0.000336354553664216</v>
+        <v>0.000244782967537603</v>
       </c>
       <c r="D102">
-        <v>-0.00082689620937458</v>
+        <v>-0.0003208027522864442</v>
       </c>
       <c r="E102">
-        <v>0.0001938594268080864</v>
+        <v>0.0005108345495765439</v>
       </c>
     </row>
     <row r="103" spans="1:5">
